--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1845.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1845.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8169199551282315</v>
+        <v>1.401418566703796</v>
       </c>
       <c r="B1">
-        <v>0.8730908666805792</v>
+        <v>3.092527151107788</v>
       </c>
       <c r="C1">
-        <v>1.000019209746975</v>
+        <v>3.949459791183472</v>
       </c>
       <c r="D1">
-        <v>1.609446450148982</v>
+        <v>2.758872747421265</v>
       </c>
       <c r="E1">
-        <v>3.135158759170481</v>
+        <v>0.7381110191345215</v>
       </c>
     </row>
   </sheetData>
